--- a/Ueberarbeitung.xlsx
+++ b/Ueberarbeitung.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\zachern-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09F9FD6-5240-4B19-BF63-760238673C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19425A53-9A8D-4ECF-B71D-CB8C044AE9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{85050368-1ED5-482C-9277-1E5015AD3B00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{85050368-1ED5-482C-9277-1E5015AD3B00}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="1" r:id="rId1"/>
     <sheet name="Models" sheetId="2" r:id="rId2"/>
+    <sheet name="Views" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Flugzeuge</t>
   </si>
@@ -240,6 +241,90 @@
   </si>
   <si>
     <t>protokollLayoutsModel</t>
+  </si>
+  <si>
+    <t>piloten</t>
+  </si>
+  <si>
+    <t>pilotenAnzeigeView</t>
+  </si>
+  <si>
+    <t>pilotenEingabeView</t>
+  </si>
+  <si>
+    <t>pilotenListeView</t>
+  </si>
+  <si>
+    <t>flugzeuge</t>
+  </si>
+  <si>
+    <t>flugzeugAnzeigeView</t>
+  </si>
+  <si>
+    <t>flugzeugEingabeView</t>
+  </si>
+  <si>
+    <t>flugzeugListeView</t>
+  </si>
+  <si>
+    <t>musterListeView</t>
+  </si>
+  <si>
+    <t>protokolle</t>
+  </si>
+  <si>
+    <t>BELADUNG_EINGABE_View</t>
+  </si>
+  <si>
+    <t>FLUGZEUG_EINGABE_View</t>
+  </si>
+  <si>
+    <t>PILOT_EINGABE_View</t>
+  </si>
+  <si>
+    <t>protokollButtonsView</t>
+  </si>
+  <si>
+    <t>protokollErsteSeiteView</t>
+  </si>
+  <si>
+    <t>protokollKapitelView</t>
+  </si>
+  <si>
+    <t>protokollListenView</t>
+  </si>
+  <si>
+    <t>protokollSeitennavigationView</t>
+  </si>
+  <si>
+    <t>protokollTitelUndInhaltView</t>
+  </si>
+  <si>
+    <t>protokollanzeige</t>
+  </si>
+  <si>
+    <t>angabenZumBeladungszustandView</t>
+  </si>
+  <si>
+    <t>angabenZumFlugzeugView</t>
+  </si>
+  <si>
+    <t>angabenZurBesatzungView</t>
+  </si>
+  <si>
+    <t>anzeigeTitelUndButtonsView</t>
+  </si>
+  <si>
+    <t>kapitelAnzeigeView</t>
+  </si>
+  <si>
+    <t>protokollInformationenView</t>
+  </si>
+  <si>
+    <t>seitenEndeMitButtonsView</t>
+  </si>
+  <si>
+    <t>vergleichsfluggeschwindigkeitView</t>
   </si>
 </sst>
 </file>
@@ -778,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC18656E-0A41-48EE-98F9-4863AF778273}">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -957,4 +1042,159 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483836B4-3322-43CC-A021-2228A1EC4BA1}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>